--- a/data/agility/teltonika_agility.xlsx
+++ b/data/agility/teltonika_agility.xlsx
@@ -7,218 +7,126 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Volume &amp; Quality" sheetId="1" r:id="rId1"/>
-    <sheet name="Sentiment" sheetId="2" r:id="rId2"/>
-    <sheet name="Top Archetypes" sheetId="3" r:id="rId3"/>
-    <sheet name="Key Topics" sheetId="4" r:id="rId4"/>
-    <sheet name="Topics per Archetype" sheetId="5" r:id="rId5"/>
-    <sheet name="Raw Data" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="349">
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>53/100</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Positive</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="352">
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Media Outlet</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Snippet</t>
+  </si>
+  <si>
+    <t>UVM (Insights by Similarweb)</t>
+  </si>
+  <si>
+    <t>Journalist Shares</t>
+  </si>
+  <si>
+    <t>Journalist Reach</t>
+  </si>
+  <si>
+    <t>Total Engagement</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Media Outlet City</t>
+  </si>
+  <si>
+    <t>Media Outlet Region</t>
+  </si>
+  <si>
+    <t>Media Outlet Country</t>
+  </si>
+  <si>
+    <t>Advertising Value Equivalency</t>
+  </si>
+  <si>
+    <t>Domain Authority (provided by Moz)</t>
+  </si>
+  <si>
+    <t>Pitch Placement</t>
+  </si>
+  <si>
+    <t>Headline</t>
+  </si>
+  <si>
+    <t>Outlet</t>
+  </si>
+  <si>
+    <t>Published Date</t>
+  </si>
+  <si>
+    <t>Contextual Snippet</t>
+  </si>
+  <si>
+    <t>Impressions</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>AVE(USD)</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Maintext</t>
+  </si>
+  <si>
+    <t>Publication_Date</t>
+  </si>
+  <si>
+    <t>Full_Title</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Topics_Sentiments</t>
+  </si>
+  <si>
+    <t>Topic 1</t>
+  </si>
+  <si>
+    <t>Sentiment 1</t>
+  </si>
+  <si>
+    <t>Topic 2</t>
+  </si>
+  <si>
+    <t>Sentiment 2</t>
+  </si>
+  <si>
+    <t>Topic 3</t>
+  </si>
+  <si>
+    <t>Sentiment 3</t>
   </si>
   <si>
     <t>Top Archetype</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>The Guardian</t>
-  </si>
-  <si>
-    <t>The Collaborator</t>
-  </si>
-  <si>
-    <t>The Futurist</t>
-  </si>
-  <si>
-    <t>The Expert</t>
-  </si>
-  <si>
-    <t>The Technologist</t>
-  </si>
-  <si>
-    <t>The Mentor</t>
-  </si>
-  <si>
-    <t>The Jet-Setter</t>
-  </si>
-  <si>
-    <t>The Accelerator</t>
-  </si>
-  <si>
-    <t>Parsing Error</t>
-  </si>
-  <si>
-    <t>The Optimizer</t>
-  </si>
-  <si>
-    <t>Topic Cluster</t>
-  </si>
-  <si>
-    <t>Bureaucratic Processes and Challenges</t>
-  </si>
-  <si>
-    <t>Economic Growth and Investment Strategies</t>
-  </si>
-  <si>
-    <t>Environmental and Safety Concerns</t>
-  </si>
-  <si>
-    <t>Technological Advancements and Innovations</t>
-  </si>
-  <si>
-    <t>Infrastructure Development and Challenges</t>
-  </si>
-  <si>
-    <t>Workforce Development and Employment Issues</t>
-  </si>
-  <si>
-    <t>Regulatory Frameworks and Compliance</t>
-  </si>
-  <si>
-    <t>International Collaboration and Economic Cooperation</t>
-  </si>
-  <si>
-    <t>Economic Impact and Trade Relations</t>
-  </si>
-  <si>
-    <t>No Topic</t>
-  </si>
-  <si>
-    <t>Archetype</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Media Outlet</t>
-  </si>
-  <si>
-    <t>Published</t>
-  </si>
-  <si>
-    <t>Snippet</t>
-  </si>
-  <si>
-    <t>UVM (Insights by Similarweb)</t>
-  </si>
-  <si>
-    <t>Journalist Shares</t>
-  </si>
-  <si>
-    <t>Journalist Reach</t>
-  </si>
-  <si>
-    <t>Total Engagement</t>
-  </si>
-  <si>
-    <t>Sentiment</t>
-  </si>
-  <si>
-    <t>Media Outlet City</t>
-  </si>
-  <si>
-    <t>Media Outlet Region</t>
-  </si>
-  <si>
-    <t>Media Outlet Country</t>
-  </si>
-  <si>
-    <t>Advertising Value Equivalency</t>
-  </si>
-  <si>
-    <t>Domain Authority (provided by Moz)</t>
-  </si>
-  <si>
-    <t>Pitch Placement</t>
-  </si>
-  <si>
-    <t>Headline</t>
-  </si>
-  <si>
-    <t>Outlet</t>
-  </si>
-  <si>
-    <t>Published Date</t>
-  </si>
-  <si>
-    <t>Contextual Snippet</t>
-  </si>
-  <si>
-    <t>Impressions</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>AVE(USD)</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>Maintext</t>
-  </si>
-  <si>
-    <t>Publication_Date</t>
-  </si>
-  <si>
-    <t>Full_Title</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>Topics_Sentiments</t>
-  </si>
-  <si>
-    <t>Topic 1</t>
-  </si>
-  <si>
-    <t>Sentiment 1</t>
-  </si>
-  <si>
-    <t>Topic 2</t>
-  </si>
-  <si>
-    <t>Sentiment 2</t>
-  </si>
-  <si>
-    <t>Topic 3</t>
-  </si>
-  <si>
-    <t>Sentiment 3</t>
-  </si>
-  <si>
     <t>Cluster_Topic2</t>
   </si>
   <si>
@@ -226,6 +134,33 @@
   </si>
   <si>
     <t>Cluster_Topic3</t>
+  </si>
+  <si>
+    <t>query_occurrences</t>
+  </si>
+  <si>
+    <t>term_in_truncated_maintext_100</t>
+  </si>
+  <si>
+    <t>term_in_truncated_maintext_200</t>
+  </si>
+  <si>
+    <t>term_in_title</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Log_Rank</t>
+  </si>
+  <si>
+    <t>Quality_Score</t>
+  </si>
+  <si>
+    <t>BMQ</t>
   </si>
   <si>
     <t>Vilniaus oro uosto zonoje droną pakėlęs įmonės atstovas - nubaustas: teko susimokėti</t>
@@ -768,6 +703,15 @@
   </si>
   <si>
     <t>Įmonės dirbtinio intelekto mokymuose ir konsultacijose dalyvavo tokios įmonės, kaip „Vinted“, „Hostinger“, „Nord Security“, „Teltonika“ ir kt. Iš viso įmonė yra surengusi per 400 dirbtuvių daugiau kaip 30 000 klausytojų Lietuvoje ir užsienyje.</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Positive</t>
   </si>
   <si>
     <t>Vilnius</t>
@@ -1760,9 +1704,6 @@
     <t>Kas liepą darbuotojams siūlė didžiausius atlyginimus: kai kur virš 20 tūkst. eurų</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>Topic 1: Dronų skrydžių pažeidimai
 Sentiment 1: Negative
 Topic 2: Teisės aktai dėl dronų naudojimo
@@ -2159,6 +2100,69 @@
   </si>
   <si>
     <t>Mixed</t>
+  </si>
+  <si>
+    <t>The Guardian</t>
+  </si>
+  <si>
+    <t>The Expert</t>
+  </si>
+  <si>
+    <t>The Futurist</t>
+  </si>
+  <si>
+    <t>The Collaborator</t>
+  </si>
+  <si>
+    <t>The Mentor</t>
+  </si>
+  <si>
+    <t>The Accelerator</t>
+  </si>
+  <si>
+    <t>The Technologist</t>
+  </si>
+  <si>
+    <t>Parsing Error</t>
+  </si>
+  <si>
+    <t>The Optimizer</t>
+  </si>
+  <si>
+    <t>The Jet-Setter</t>
+  </si>
+  <si>
+    <t>Regulatory Frameworks and Compliance</t>
+  </si>
+  <si>
+    <t>Workforce Development and Employment Issues</t>
+  </si>
+  <si>
+    <t>Infrastructure Development and Challenges</t>
+  </si>
+  <si>
+    <t>Economic Impact and Trade Relations</t>
+  </si>
+  <si>
+    <t>Economic Growth and Investment Strategies</t>
+  </si>
+  <si>
+    <t>Bureaucratic Processes and Challenges</t>
+  </si>
+  <si>
+    <t>No Topic</t>
+  </si>
+  <si>
+    <t>International Collaboration and Economic Cooperation</t>
+  </si>
+  <si>
+    <t>Technological Advancements and Innovations</t>
+  </si>
+  <si>
+    <t>Environmental and Safety Concerns</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -2533,741 +2537,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:AW54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>28.3</v>
-      </c>
-      <c r="B2">
-        <v>32.1</v>
-      </c>
-      <c r="C2">
-        <v>39.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>1.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>39.6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>16.7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>14.6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>33.3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>33.3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>13.3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>37.5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>20.8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>16.7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>33.3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>22.2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>19.4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>83.3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>16.7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>66.7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>33.3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>26.7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>66.7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>33.3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>33.3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>33.3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>16.7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3">
         <v>45956.28068287037</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="G2">
         <v>1048872</v>
@@ -3282,10 +2721,10 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="N2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O2">
         <v>9702.07</v>
@@ -3294,84 +2733,111 @@
         <v>70</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="T2" s="3">
         <v>45956</v>
       </c>
       <c r="U2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="V2">
         <v>1048872</v>
       </c>
       <c r="W2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X2">
         <v>9702.07</v>
       </c>
       <c r="Y2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z2" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="AA2" s="3">
         <v>45956</v>
       </c>
       <c r="AB2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AC2" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="AD2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="AF2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT2">
+        <v>11378</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
         <v>2</v>
       </c>
-      <c r="AH2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>19</v>
+      <c r="AW2">
+        <v>0.4982479397052577</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E3" s="3">
         <v>45957.38172453704</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G3">
         <v>1580314</v>
@@ -3386,16 +2852,16 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L3" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M3" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O3">
         <v>14617.9</v>
@@ -3404,84 +2870,111 @@
         <v>68</v>
       </c>
       <c r="R3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T3" s="3">
         <v>45957</v>
       </c>
       <c r="U3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="V3">
         <v>1580314</v>
       </c>
       <c r="W3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X3">
         <v>14617.9</v>
       </c>
       <c r="Y3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="AA3" s="3">
         <v>45957.52569444444</v>
       </c>
       <c r="AB3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AC3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="AD3" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="AF3" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH3" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AJ3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AO3">
         <v>2</v>
       </c>
-      <c r="AK3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>24</v>
+      <c r="AP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT3">
+        <v>4977</v>
+      </c>
+      <c r="AU3">
+        <v>0.8498</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>0.4354185229993758</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3">
         <v>45956.29864583333</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G4">
         <v>1580314</v>
@@ -3496,16 +2989,16 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M4" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O4">
         <v>14617.9</v>
@@ -3514,84 +3007,111 @@
         <v>68</v>
       </c>
       <c r="R4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T4" s="3">
         <v>45956</v>
       </c>
       <c r="U4" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="V4">
         <v>1580314</v>
       </c>
       <c r="W4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X4">
         <v>14617.9</v>
       </c>
       <c r="Y4" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="AA4" s="3">
         <v>45956.45833333334</v>
       </c>
       <c r="AB4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="AD4" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="AF4" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH4" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ4" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK4" t="s">
-        <v>10</v>
+        <v>333</v>
       </c>
       <c r="AL4" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="AM4" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="AN4" t="s">
-        <v>23</v>
+        <v>343</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT4">
+        <v>4977</v>
+      </c>
+      <c r="AU4">
+        <v>0.762</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0.3844697612267493</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3">
         <v>45956.27346064815</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G5">
         <v>1849147</v>
@@ -3606,13 +3126,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L5" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N5" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O5">
         <v>9245.74</v>
@@ -3621,99 +3141,126 @@
         <v>81</v>
       </c>
       <c r="R5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="S5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T5" s="3">
         <v>45956</v>
       </c>
       <c r="U5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="V5">
         <v>1849147</v>
       </c>
       <c r="W5" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X5">
         <v>9245.74</v>
       </c>
       <c r="Y5" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z5" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AA5" s="3">
         <v>45956.44012731482</v>
       </c>
       <c r="AB5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="AC5" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AD5" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="AF5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT5">
+        <v>15353</v>
+      </c>
+      <c r="AU5">
+        <v>0.6995999999999999</v>
+      </c>
+      <c r="AV5">
         <v>2</v>
       </c>
-      <c r="AH5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>21</v>
+      <c r="AW5">
+        <v>0.494181460939989</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E6" s="3">
         <v>45956.26726851852</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G6">
         <v>1580314</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L6" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M6" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N6" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O6">
         <v>14617.9</v>
@@ -3722,84 +3269,111 @@
         <v>68</v>
       </c>
       <c r="R6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T6" s="3">
         <v>45956</v>
       </c>
       <c r="U6" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="V6">
         <v>1580314</v>
       </c>
       <c r="W6" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X6">
         <v>14617.9</v>
       </c>
       <c r="Y6" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z6" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="AA6" s="3">
         <v>45956.42777777778</v>
       </c>
       <c r="AB6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="AC6" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="AD6" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="AF6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT6">
+        <v>4977</v>
+      </c>
+      <c r="AU6">
+        <v>0.6513</v>
+      </c>
+      <c r="AV6">
         <v>2</v>
       </c>
-      <c r="AH6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>21</v>
+      <c r="AW6">
+        <v>0.5094697612267494</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E7" s="3">
         <v>45951.93762731482</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="G7">
         <v>1849147</v>
@@ -3814,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N7" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O7">
         <v>9245.74</v>
@@ -3829,96 +3403,123 @@
         <v>81</v>
       </c>
       <c r="R7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="S7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T7" s="3">
         <v>45951</v>
       </c>
       <c r="U7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="V7">
         <v>1849147</v>
       </c>
       <c r="W7" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X7">
         <v>9245.74</v>
       </c>
       <c r="Y7" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z7" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="AA7" s="3">
         <v>45952.10429398148</v>
       </c>
       <c r="AB7" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AC7" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="AD7" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="AF7" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH7" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ7" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK7" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="AL7" t="s">
-        <v>27</v>
+        <v>344</v>
       </c>
       <c r="AM7" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
       <c r="AN7" t="s">
-        <v>26</v>
+        <v>348</v>
+      </c>
+      <c r="AO7">
+        <v>2</v>
+      </c>
+      <c r="AP7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT7">
+        <v>15353</v>
+      </c>
+      <c r="AU7">
+        <v>0.6118</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0.4201302227126156</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E8" s="3">
         <v>45954.31964120371</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="G8">
         <v>1435066</v>
       </c>
       <c r="K8" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L8" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M8" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N8" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O8">
         <v>13274.36</v>
@@ -3927,81 +3528,108 @@
         <v>73</v>
       </c>
       <c r="R8" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="S8" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T8" s="3">
         <v>45954</v>
       </c>
       <c r="U8" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="V8">
         <v>1435066</v>
       </c>
       <c r="W8" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X8">
         <v>13274.36</v>
       </c>
       <c r="Y8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="AA8" s="3">
         <v>45954.60960648148</v>
       </c>
       <c r="AB8" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="AD8" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="AF8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT8">
+        <v>8691</v>
+      </c>
+      <c r="AU8">
+        <v>0.5784</v>
+      </c>
+      <c r="AV8">
         <v>2</v>
       </c>
-      <c r="AH8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>25</v>
+      <c r="AW8">
+        <v>0.5019040703148929</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E9" s="3">
         <v>45952.13534722223</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="G9">
         <v>1849147</v>
@@ -4016,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L9" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N9" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O9">
         <v>9245.74</v>
@@ -4031,81 +3659,108 @@
         <v>81</v>
       </c>
       <c r="R9" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="S9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T9" s="3">
         <v>45952</v>
       </c>
       <c r="U9" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="V9">
         <v>1849147</v>
       </c>
       <c r="W9" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X9">
         <v>9245.74</v>
       </c>
       <c r="Y9" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z9" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="AA9" s="3">
         <v>45952.30201388889</v>
       </c>
       <c r="AB9" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AC9" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="AD9" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="AF9" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AH9" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AJ9" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK9" t="s">
-        <v>13</v>
+        <v>335</v>
       </c>
       <c r="AL9" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="AM9" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="AN9" t="s">
-        <v>24</v>
+        <v>342</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT9">
+        <v>15353</v>
+      </c>
+      <c r="AU9">
+        <v>0.5494</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0.369181460939989</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E10" s="3">
         <v>45937.97638888889</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="G10">
         <v>1580314</v>
@@ -4120,16 +3775,16 @@
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L10" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M10" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O10">
         <v>14617.9</v>
@@ -4138,90 +3793,117 @@
         <v>68</v>
       </c>
       <c r="R10" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="S10" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T10" s="3">
         <v>45937</v>
       </c>
       <c r="U10" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="V10">
         <v>1580314</v>
       </c>
       <c r="W10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X10">
         <v>14617.9</v>
       </c>
       <c r="Y10" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z10" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="AA10" s="3">
         <v>45938.14305555556</v>
       </c>
       <c r="AB10" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="AC10" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="AD10" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="AF10" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH10" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AJ10" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AK10" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="AL10" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AM10" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AN10" t="s">
-        <v>19</v>
+        <v>346</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT10">
+        <v>4977</v>
+      </c>
+      <c r="AU10">
+        <v>0.5239</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>0.5094697612267494</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E11" s="3">
         <v>45936.14336805556</v>
       </c>
       <c r="F11" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G11">
         <v>1048872</v>
       </c>
       <c r="K11" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="N11" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O11">
         <v>9702.07</v>
@@ -4230,81 +3912,108 @@
         <v>70</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="T11" s="3">
         <v>45936</v>
       </c>
       <c r="U11" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="V11">
         <v>1048872</v>
       </c>
       <c r="W11" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X11">
         <v>9702.07</v>
       </c>
       <c r="Y11" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z11" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="AA11" s="3">
         <v>45936</v>
       </c>
       <c r="AB11" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="AC11" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="AD11" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="AF11" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AH11" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ11" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AK11" t="s">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c r="AL11" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AM11" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AN11" t="s">
-        <v>20</v>
+        <v>345</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT11">
+        <v>11378</v>
+      </c>
+      <c r="AU11">
+        <v>0.5011</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0.3732479397052577</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E12" s="3">
         <v>45937.96633101852</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="G12">
         <v>1435066</v>
@@ -4319,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M12" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O12">
         <v>13274.36</v>
@@ -4337,93 +4046,120 @@
         <v>73</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="S12" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T12" s="3">
         <v>45937</v>
       </c>
       <c r="U12" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="V12">
         <v>1435066</v>
       </c>
       <c r="W12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X12">
         <v>13274.36</v>
       </c>
       <c r="Y12" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z12" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="AA12" s="3">
         <v>45938.25491898148</v>
       </c>
       <c r="AB12" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="AC12" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="AD12" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="AF12" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH12" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ12" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AK12" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="AL12" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="AM12" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AN12" t="s">
-        <v>19</v>
+        <v>346</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT12">
+        <v>8691</v>
+      </c>
+      <c r="AU12">
+        <v>0.4804</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0.376904070314893</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E13" s="3">
         <v>45936.191875</v>
       </c>
       <c r="F13" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="G13">
         <v>1849147</v>
       </c>
       <c r="K13" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L13" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N13" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O13">
         <v>9245.74</v>
@@ -4432,99 +4168,126 @@
         <v>81</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="S13" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T13" s="3">
         <v>45936</v>
       </c>
       <c r="U13" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="V13">
         <v>1849147</v>
       </c>
       <c r="W13" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X13">
         <v>9245.74</v>
       </c>
       <c r="Y13" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z13" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="AA13" s="3">
         <v>45936.35833333333</v>
       </c>
       <c r="AB13" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AC13" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="AD13" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="AF13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO13">
         <v>2</v>
       </c>
-      <c r="AH13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>20</v>
+      <c r="AP13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT13">
+        <v>15353</v>
+      </c>
+      <c r="AU13">
+        <v>0.4616</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0.4201302227126156</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E14" s="3">
         <v>45936.13186342592</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G14">
         <v>1580314</v>
       </c>
       <c r="K14" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L14" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M14" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N14" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O14">
         <v>14617.9</v>
@@ -4533,84 +4296,111 @@
         <v>68</v>
       </c>
       <c r="R14" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="S14" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T14" s="3">
         <v>45936</v>
       </c>
       <c r="U14" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="V14">
         <v>1580314</v>
       </c>
       <c r="W14" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X14">
         <v>14617.9</v>
       </c>
       <c r="Y14" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z14" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="AA14" s="3">
         <v>45936.28958333333</v>
       </c>
       <c r="AB14" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AC14" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="AD14" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="AF14" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AH14" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ14" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AK14" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="AL14" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AM14" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AN14" t="s">
-        <v>20</v>
+        <v>345</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT14">
+        <v>4977</v>
+      </c>
+      <c r="AU14">
+        <v>0.4442</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0.3844697612267493</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E15" s="3">
         <v>45933.27184027778</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="G15">
         <v>1580314</v>
@@ -4625,16 +4415,16 @@
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L15" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M15" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N15" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O15">
         <v>14617.9</v>
@@ -4643,96 +4433,123 @@
         <v>68</v>
       </c>
       <c r="R15" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T15" s="3">
         <v>45933</v>
       </c>
       <c r="U15" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="V15">
         <v>1580314</v>
       </c>
       <c r="W15" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X15">
         <v>14617.9</v>
       </c>
       <c r="Y15" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z15" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AA15" s="3">
         <v>45933.41458333333</v>
       </c>
       <c r="AB15" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="AC15" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AD15" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="AF15" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH15" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="AJ15" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AK15" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="AL15" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AM15" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="AN15" t="s">
-        <v>24</v>
+        <v>342</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT15">
+        <v>4977</v>
+      </c>
+      <c r="AU15">
+        <v>0.4282</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0.3844697612267493</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E16" s="3">
         <v>45936.12438657408</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="G16">
         <v>1849147</v>
       </c>
       <c r="K16" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L16" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N16" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O16">
         <v>9245.74</v>
@@ -4741,84 +4558,111 @@
         <v>81</v>
       </c>
       <c r="R16" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="S16" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T16" s="3">
         <v>45936</v>
       </c>
       <c r="U16" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="V16">
         <v>1849147</v>
       </c>
       <c r="W16" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X16">
         <v>9245.74</v>
       </c>
       <c r="Y16" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z16" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="AA16" s="3">
         <v>45936.29105324074</v>
       </c>
       <c r="AB16" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AC16" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="AD16" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="AF16" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AH16" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ16" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AK16" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="AL16" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AM16" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AN16" t="s">
-        <v>20</v>
+        <v>345</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT16">
+        <v>15353</v>
+      </c>
+      <c r="AU16">
+        <v>0.4132</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0.369181460939989</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E17" s="3">
         <v>45932.3321412037</v>
       </c>
       <c r="F17" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="G17">
         <v>1849147</v>
@@ -4833,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L17" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N17" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O17">
         <v>9245.74</v>
@@ -4848,96 +4692,123 @@
         <v>81</v>
       </c>
       <c r="R17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="S17" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T17" s="3">
         <v>45932</v>
       </c>
       <c r="U17" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="V17">
         <v>1849147</v>
       </c>
       <c r="W17" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X17">
         <v>9245.74</v>
       </c>
       <c r="Y17" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z17" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AA17" s="3">
         <v>45932.49880787037</v>
       </c>
       <c r="AB17" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="AC17" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AD17" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="AF17" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH17" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>349</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT17">
+        <v>15353</v>
+      </c>
+      <c r="AU17">
+        <v>0.3992</v>
+      </c>
+      <c r="AV17">
         <v>2</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>22</v>
+      <c r="AW17">
+        <v>0.494181460939989</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E18" s="3">
         <v>45919.1442824074</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="G18">
         <v>1849147</v>
       </c>
       <c r="K18" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L18" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O18">
         <v>9245.74</v>
@@ -4946,84 +4817,111 @@
         <v>81</v>
       </c>
       <c r="R18" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="S18" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T18" s="3">
         <v>45919</v>
       </c>
       <c r="U18" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="V18">
         <v>1849147</v>
       </c>
       <c r="W18" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X18">
         <v>9245.74</v>
       </c>
       <c r="Y18" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z18" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AA18" s="3">
         <v>45919.31094907408</v>
       </c>
       <c r="AB18" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="AC18" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AD18" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="AF18" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH18" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ18" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK18" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="AL18" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AM18" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="AN18" t="s">
-        <v>27</v>
+        <v>344</v>
+      </c>
+      <c r="AO18">
+        <v>5</v>
+      </c>
+      <c r="AP18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT18">
+        <v>15353</v>
+      </c>
+      <c r="AU18">
+        <v>0.3861</v>
+      </c>
+      <c r="AV18">
+        <v>2</v>
+      </c>
+      <c r="AW18">
+        <v>0.6124808222995739</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E19" s="3">
         <v>45919.04166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="G19">
         <v>1580314</v>
@@ -5038,16 +4936,16 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O19">
         <v>14617.9</v>
@@ -5056,84 +4954,111 @@
         <v>68</v>
       </c>
       <c r="R19" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="S19" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T19" s="3">
         <v>45919</v>
       </c>
       <c r="U19" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="V19">
         <v>1580314</v>
       </c>
       <c r="W19" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X19">
         <v>14617.9</v>
       </c>
       <c r="Y19" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z19" t="s">
         <v>241</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>258</v>
       </c>
       <c r="AA19" s="3">
         <v>45919.20833333334</v>
       </c>
       <c r="AB19" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AC19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="AD19" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="AF19" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO19">
         <v>2</v>
       </c>
-      <c r="AH19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>20</v>
+      <c r="AP19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT19">
+        <v>4977</v>
+      </c>
+      <c r="AU19">
+        <v>0.3737</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0.4354185229993758</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E20" s="3">
         <v>45919.14407407407</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="G20">
         <v>1849147</v>
@@ -5148,13 +5073,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O20">
         <v>9245.74</v>
@@ -5163,81 +5088,108 @@
         <v>81</v>
       </c>
       <c r="R20" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="S20" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T20" s="3">
         <v>45919</v>
       </c>
       <c r="U20" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="V20">
         <v>1849147</v>
       </c>
       <c r="W20" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X20">
         <v>9245.74</v>
       </c>
       <c r="Y20" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z20" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AA20" s="3">
         <v>45919.31074074074</v>
       </c>
       <c r="AB20" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="AC20" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AD20" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="AF20" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH20" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ20" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK20" t="s">
-        <v>10</v>
+        <v>333</v>
       </c>
       <c r="AL20" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AM20" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="AN20" t="s">
-        <v>24</v>
+        <v>342</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT20">
+        <v>15353</v>
+      </c>
+      <c r="AU20">
+        <v>0.362</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0.369181460939989</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E21" s="3">
         <v>45918.50942129629</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G21">
         <v>1435066</v>
@@ -5246,16 +5198,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O21">
         <v>13274.36</v>
@@ -5264,93 +5216,120 @@
         <v>73</v>
       </c>
       <c r="R21" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="S21" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T21" s="3">
         <v>45918</v>
       </c>
       <c r="U21" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="V21">
         <v>1435066</v>
       </c>
       <c r="W21" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X21">
         <v>13274.36</v>
       </c>
       <c r="Y21" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z21" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="AA21" s="3">
         <v>45918.69123842593</v>
       </c>
       <c r="AB21" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="AC21" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="AD21" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="AF21" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AH21" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AJ21" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AK21" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="AL21" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AM21" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="AN21" t="s">
-        <v>22</v>
+        <v>349</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT21">
+        <v>8691</v>
+      </c>
+      <c r="AU21">
+        <v>0.3509</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0.376904070314893</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:49">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E22" s="3">
         <v>45918.35368055556</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="G22">
         <v>1849147</v>
       </c>
       <c r="K22" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O22">
         <v>9245.74</v>
@@ -5359,90 +5338,117 @@
         <v>81</v>
       </c>
       <c r="R22" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="S22" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T22" s="3">
         <v>45918</v>
       </c>
       <c r="U22" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="V22">
         <v>1849147</v>
       </c>
       <c r="W22" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X22">
         <v>9245.74</v>
       </c>
       <c r="Y22" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="AA22" s="3">
         <v>45918.52034722222</v>
       </c>
       <c r="AB22" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="AC22" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="AD22" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="AF22" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH22" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ22" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK22" t="s">
-        <v>10</v>
+        <v>333</v>
       </c>
       <c r="AL22" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AM22" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="AN22" t="s">
-        <v>19</v>
+        <v>346</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT22">
+        <v>15353</v>
+      </c>
+      <c r="AU22">
+        <v>0.3403</v>
+      </c>
+      <c r="AV22">
+        <v>3</v>
+      </c>
+      <c r="AW22">
+        <v>0.6999333378077777</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:49">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E23" s="3">
         <v>45918.28337962963</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G23">
         <v>1048872</v>
       </c>
       <c r="K23" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O23">
         <v>9702.07</v>
@@ -5451,84 +5457,111 @@
         <v>70</v>
       </c>
       <c r="R23" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="S23" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="T23" s="3">
         <v>45918</v>
       </c>
       <c r="U23" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="V23">
         <v>1048872</v>
       </c>
       <c r="W23" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X23">
         <v>9702.07</v>
       </c>
       <c r="Y23" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z23" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AA23" s="3">
         <v>45918</v>
       </c>
       <c r="AB23" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AC23" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AD23" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="AF23" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH23" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AJ23" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK23" t="s">
-        <v>10</v>
+        <v>333</v>
       </c>
       <c r="AL23" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AM23" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="AN23" t="s">
-        <v>22</v>
+        <v>349</v>
+      </c>
+      <c r="AO23">
+        <v>5</v>
+      </c>
+      <c r="AP23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT23">
+        <v>11378</v>
+      </c>
+      <c r="AU23">
+        <v>0.3302</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0.4915473010648426</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:49">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E24" s="3">
         <v>45918.29861111111</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="G24">
         <v>1580314</v>
@@ -5543,16 +5576,16 @@
         <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O24">
         <v>14617.9</v>
@@ -5561,96 +5594,123 @@
         <v>68</v>
       </c>
       <c r="R24" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="S24" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T24" s="3">
         <v>45918</v>
       </c>
       <c r="U24" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="V24">
         <v>1580314</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X24">
         <v>14617.9</v>
       </c>
       <c r="Y24" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z24" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="AA24" s="3">
         <v>45918.46527777778</v>
       </c>
       <c r="AB24" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AC24" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="AD24" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="AF24" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>337</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>342</v>
+      </c>
+      <c r="AO24">
         <v>4</v>
       </c>
-      <c r="AH24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>24</v>
+      <c r="AP24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT24">
+        <v>4977</v>
+      </c>
+      <c r="AU24">
+        <v>0.3206</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>0.7363672847720024</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:49">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E25" s="3">
         <v>45918.27153935185</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="G25">
         <v>1849147</v>
       </c>
       <c r="K25" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N25" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O25">
         <v>9245.74</v>
@@ -5659,99 +5719,126 @@
         <v>81</v>
       </c>
       <c r="R25" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="S25" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T25" s="3">
         <v>45918</v>
       </c>
       <c r="U25" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="V25">
         <v>1849147</v>
       </c>
       <c r="W25" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X25">
         <v>9245.74</v>
       </c>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z25" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AA25" s="3">
         <v>45918.43820601852</v>
       </c>
       <c r="AB25" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AC25" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AD25" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="AF25" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH25" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ25" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK25" t="s">
-        <v>10</v>
+        <v>333</v>
       </c>
       <c r="AL25" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AM25" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="AN25" t="s">
-        <v>22</v>
+        <v>349</v>
+      </c>
+      <c r="AO25">
+        <v>7</v>
+      </c>
+      <c r="AP25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT25">
+        <v>15353</v>
+      </c>
+      <c r="AU25">
+        <v>0.3114</v>
+      </c>
+      <c r="AV25">
+        <v>3</v>
+      </c>
+      <c r="AW25">
+        <v>0.7622127180751125</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:49">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E26" s="3">
         <v>45918.2481712963</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G26">
         <v>1580314</v>
       </c>
       <c r="K26" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O26">
         <v>14617.9</v>
@@ -5760,99 +5847,126 @@
         <v>68</v>
       </c>
       <c r="R26" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="S26" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T26" s="3">
         <v>45918</v>
       </c>
       <c r="U26" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="V26">
         <v>1580314</v>
       </c>
       <c r="W26" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X26">
         <v>14617.9</v>
       </c>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z26" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="AA26" s="3">
         <v>45918.39444444444</v>
       </c>
       <c r="AB26" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="AD26" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="AF26" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH26" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ26" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AK26" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="AL26" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="AM26" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AN26" t="s">
-        <v>20</v>
+        <v>345</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT26">
+        <v>4977</v>
+      </c>
+      <c r="AU26">
+        <v>0.3025</v>
+      </c>
+      <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <v>0.5094697612267494</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:49">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E27" s="3">
         <v>45918.22646990741</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="G27">
         <v>1580314</v>
       </c>
       <c r="K27" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M27" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O27">
         <v>14617.9</v>
@@ -5861,99 +5975,126 @@
         <v>68</v>
       </c>
       <c r="R27" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T27" s="3">
         <v>45918</v>
       </c>
       <c r="U27" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="V27">
         <v>1580314</v>
       </c>
       <c r="W27" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X27">
         <v>14617.9</v>
       </c>
       <c r="Y27" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z27" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="AA27" s="3">
         <v>45918.37569444445</v>
       </c>
       <c r="AB27" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="AD27" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="AF27" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH27" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ27" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s">
-        <v>10</v>
+        <v>333</v>
       </c>
       <c r="AL27" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AM27" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="AN27" t="s">
-        <v>22</v>
+        <v>349</v>
+      </c>
+      <c r="AO27">
+        <v>3</v>
+      </c>
+      <c r="AP27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT27">
+        <v>4977</v>
+      </c>
+      <c r="AU27">
+        <v>0.294</v>
+      </c>
+      <c r="AV27">
+        <v>3</v>
+      </c>
+      <c r="AW27">
+        <v>0.715221638094538</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:49">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" t="s">
         <v>171</v>
-      </c>
-      <c r="D28" t="s">
-        <v>191</v>
       </c>
       <c r="E28" s="3">
         <v>45918.21708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="G28">
         <v>1435066</v>
       </c>
       <c r="K28" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N28" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O28">
         <v>13274.36</v>
@@ -5962,81 +6103,105 @@
         <v>73</v>
       </c>
       <c r="R28" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T28" s="3">
         <v>45918</v>
       </c>
       <c r="U28" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="V28">
         <v>1435066</v>
       </c>
       <c r="W28" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X28">
         <v>13274.36</v>
       </c>
       <c r="Y28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="AD28" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AK28" t="s">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="AL28" t="s">
-        <v>28</v>
+        <v>347</v>
       </c>
       <c r="AM28" t="s">
-        <v>28</v>
+        <v>347</v>
       </c>
       <c r="AN28" t="s">
-        <v>28</v>
+        <v>347</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT28">
+        <v>8691</v>
+      </c>
+      <c r="AU28">
+        <v>0.2859</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0.376904070314893</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:49">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E29" s="3">
         <v>45918.23293981481</v>
       </c>
       <c r="F29" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G29">
         <v>1435066</v>
       </c>
       <c r="K29" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M29" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N29" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O29">
         <v>13274.36</v>
@@ -6045,99 +6210,126 @@
         <v>73</v>
       </c>
       <c r="R29" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="S29" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T29" s="3">
         <v>45918</v>
       </c>
       <c r="U29" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="V29">
         <v>1435066</v>
       </c>
       <c r="W29" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X29">
         <v>13274.36</v>
       </c>
       <c r="Y29" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z29" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="AA29" s="3">
         <v>45918.52159722222</v>
       </c>
       <c r="AB29" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="AD29" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AF29" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH29" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ29" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK29" t="s">
-        <v>17</v>
+        <v>339</v>
       </c>
       <c r="AL29" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="AM29" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AN29" t="s">
-        <v>20</v>
+        <v>345</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT29">
+        <v>8691</v>
+      </c>
+      <c r="AU29">
+        <v>0.278</v>
+      </c>
+      <c r="AV29">
+        <v>2</v>
+      </c>
+      <c r="AW29">
+        <v>0.5019040703148929</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:49">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E30" s="3">
         <v>45918.2266087963</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="G30">
         <v>1435066</v>
       </c>
       <c r="K30" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N30" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O30">
         <v>13274.36</v>
@@ -6146,93 +6338,120 @@
         <v>73</v>
       </c>
       <c r="R30" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T30" s="3">
         <v>45918</v>
       </c>
       <c r="U30" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="V30">
         <v>1435066</v>
       </c>
       <c r="W30" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X30">
         <v>13274.36</v>
       </c>
       <c r="Y30" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z30" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="AA30" s="3">
         <v>45917.7237962963</v>
       </c>
       <c r="AB30" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="AD30" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="AF30" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH30" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ30" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>333</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>346</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT30">
+        <v>8691</v>
+      </c>
+      <c r="AU30">
+        <v>0.2704</v>
+      </c>
+      <c r="AV30">
         <v>2</v>
       </c>
-      <c r="AK30" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>19</v>
+      <c r="AW30">
+        <v>0.5826559471826815</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:49">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E31" s="3">
         <v>45918.21828703704</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="G31">
         <v>1849147</v>
       </c>
       <c r="K31" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L31" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N31" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O31">
         <v>9245.74</v>
@@ -6241,84 +6460,111 @@
         <v>81</v>
       </c>
       <c r="R31" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T31" s="3">
         <v>45918</v>
       </c>
       <c r="U31" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="V31">
         <v>1849147</v>
       </c>
       <c r="W31" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X31">
         <v>9245.74</v>
       </c>
       <c r="Y31" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z31" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="AA31" s="3">
         <v>45918.3849537037</v>
       </c>
       <c r="AB31" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="AD31" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="AF31" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AH31" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>346</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT31">
+        <v>15353</v>
+      </c>
+      <c r="AU31">
+        <v>0.263</v>
+      </c>
+      <c r="AV31">
         <v>2</v>
       </c>
-      <c r="AJ31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>19</v>
+      <c r="AW31">
+        <v>0.494181460939989</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:49">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E32" s="3">
         <v>45911.22119212963</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G32">
         <v>1849147</v>
@@ -6333,13 +6579,13 @@
         <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N32" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O32">
         <v>9245.74</v>
@@ -6348,81 +6594,108 @@
         <v>81</v>
       </c>
       <c r="R32" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T32" s="3">
         <v>45911</v>
       </c>
       <c r="U32" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="V32">
         <v>1849147</v>
       </c>
       <c r="W32" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X32">
         <v>9245.74</v>
       </c>
       <c r="Y32" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z32" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="AA32" s="3">
         <v>45911.3878587963</v>
       </c>
       <c r="AB32" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="AD32" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="AF32" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AH32" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ32" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK32" t="s">
-        <v>13</v>
+        <v>335</v>
       </c>
       <c r="AL32" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="AM32" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="AN32" t="s">
-        <v>19</v>
+        <v>346</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT32">
+        <v>15353</v>
+      </c>
+      <c r="AU32">
+        <v>0.2559</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0.369181460939989</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E33" s="3">
         <v>45912.16038194444</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G33">
         <v>1435066</v>
@@ -6437,16 +6710,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L33" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M33" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N33" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O33">
         <v>13274.36</v>
@@ -6455,96 +6728,123 @@
         <v>73</v>
       </c>
       <c r="R33" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T33" s="3">
         <v>45912</v>
       </c>
       <c r="U33" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="V33">
         <v>1435066</v>
       </c>
       <c r="W33" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X33">
         <v>13274.36</v>
       </c>
       <c r="Y33" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z33" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="AA33" s="3">
         <v>45912</v>
       </c>
       <c r="AB33" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="AD33" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="AF33" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH33" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ33" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK33" t="s">
-        <v>10</v>
+        <v>333</v>
       </c>
       <c r="AL33" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
       <c r="AM33" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="AN33" t="s">
-        <v>22</v>
+        <v>349</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT33">
+        <v>8691</v>
+      </c>
+      <c r="AU33">
+        <v>0.249</v>
+      </c>
+      <c r="AV33">
+        <v>2</v>
+      </c>
+      <c r="AW33">
+        <v>0.5019040703148929</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E34" s="3">
         <v>45909.15234953703</v>
       </c>
       <c r="F34" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G34">
         <v>1435066</v>
       </c>
       <c r="K34" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L34" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M34" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N34" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O34">
         <v>13274.36</v>
@@ -6553,96 +6853,123 @@
         <v>73</v>
       </c>
       <c r="R34" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T34" s="3">
         <v>45909</v>
       </c>
       <c r="U34" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="V34">
         <v>1435066</v>
       </c>
       <c r="W34" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X34">
         <v>13274.36</v>
       </c>
       <c r="Y34" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z34" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="AA34" s="3">
         <v>45909.44241898148</v>
       </c>
       <c r="AB34" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="AD34" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="AF34" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AH34" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AJ34" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AK34" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="AL34" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AM34" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="AN34" t="s">
-        <v>21</v>
+        <v>350</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT34">
+        <v>8691</v>
+      </c>
+      <c r="AU34">
+        <v>0.2424</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0.376904070314893</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E35" s="3">
         <v>45909.1825</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G35">
         <v>1435066</v>
       </c>
       <c r="K35" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M35" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N35" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O35">
         <v>13274.36</v>
@@ -6651,81 +6978,108 @@
         <v>73</v>
       </c>
       <c r="R35" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T35" s="3">
         <v>45909</v>
       </c>
       <c r="U35" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="V35">
         <v>1435066</v>
       </c>
       <c r="W35" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X35">
         <v>13274.36</v>
       </c>
       <c r="Y35" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z35" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="AA35" s="3">
         <v>45909.44241898148</v>
       </c>
       <c r="AB35" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="AD35" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="AF35" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AH35" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AJ35" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AK35" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="AL35" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AM35" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="AN35" t="s">
-        <v>21</v>
+        <v>350</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT35">
+        <v>8691</v>
+      </c>
+      <c r="AU35">
+        <v>0.2359</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0.376904070314893</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E36" s="3">
         <v>45909.09236111111</v>
       </c>
       <c r="F36" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G36">
         <v>1580314</v>
@@ -6740,16 +7094,16 @@
         <v>4</v>
       </c>
       <c r="K36" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L36" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M36" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N36" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O36">
         <v>14617.9</v>
@@ -6758,99 +7112,126 @@
         <v>68</v>
       </c>
       <c r="R36" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T36" s="3">
         <v>45909</v>
       </c>
       <c r="U36" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="V36">
         <v>1580314</v>
       </c>
       <c r="W36" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X36">
         <v>14617.9</v>
       </c>
       <c r="Y36" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z36" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="AA36" s="3">
         <v>45909.25902777778</v>
       </c>
       <c r="AB36" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="AD36" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="AF36" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AH36" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AJ36" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK36" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="AM36" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="AN36" t="s">
-        <v>21</v>
+        <v>350</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT36">
+        <v>4977</v>
+      </c>
+      <c r="AU36">
+        <v>0.2296</v>
+      </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <v>0.3844697612267493</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E37" s="3">
         <v>45908.09079861111</v>
       </c>
       <c r="F37" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="G37">
         <v>1580314</v>
       </c>
       <c r="K37" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L37" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M37" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N37" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O37">
         <v>14617.9</v>
@@ -6859,96 +7240,123 @@
         <v>68</v>
       </c>
       <c r="R37" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S37" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T37" s="3">
         <v>45908</v>
       </c>
       <c r="U37" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="V37">
         <v>1580314</v>
       </c>
       <c r="W37" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X37">
         <v>14617.9</v>
       </c>
       <c r="Y37" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z37" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="AA37" s="3">
         <v>45908.22708333333</v>
       </c>
       <c r="AB37" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AC37" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="AD37" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>337</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>346</v>
+      </c>
+      <c r="AO37">
         <v>4</v>
       </c>
-      <c r="AH37" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ37" t="s">
+      <c r="AP37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT37">
+        <v>4977</v>
+      </c>
+      <c r="AU37">
+        <v>0.2235</v>
+      </c>
+      <c r="AV37">
         <v>2</v>
       </c>
-      <c r="AK37" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>19</v>
+      <c r="AW37">
+        <v>0.6113672847720024</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E38" s="3">
         <v>45907.53057870371</v>
       </c>
       <c r="F38" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="G38">
         <v>1580314</v>
       </c>
       <c r="K38" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L38" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M38" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N38" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O38">
         <v>14617.9</v>
@@ -6957,99 +7365,126 @@
         <v>68</v>
       </c>
       <c r="R38" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="S38" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T38" s="3">
         <v>45907</v>
       </c>
       <c r="U38" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="V38">
         <v>1580314</v>
       </c>
       <c r="W38" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X38">
         <v>14617.9</v>
       </c>
       <c r="Y38" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z38" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="AA38" s="3">
         <v>45907.67777777778</v>
       </c>
       <c r="AB38" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AC38" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="AD38" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK38" t="s">
         <v>331</v>
       </c>
-      <c r="AF38" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>8</v>
-      </c>
       <c r="AL38" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
       <c r="AN38" t="s">
-        <v>24</v>
+        <v>342</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT38">
+        <v>4977</v>
+      </c>
+      <c r="AU38">
+        <v>0.2176</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0.3844697612267493</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E39" s="3">
         <v>45908.0591087963</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="G39">
         <v>1435066</v>
       </c>
       <c r="K39" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L39" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M39" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N39" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O39">
         <v>13274.36</v>
@@ -7058,96 +7493,123 @@
         <v>73</v>
       </c>
       <c r="R39" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S39" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T39" s="3">
         <v>45908</v>
       </c>
       <c r="U39" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="V39">
         <v>1435066</v>
       </c>
       <c r="W39" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X39">
         <v>13274.36</v>
       </c>
       <c r="Y39" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z39" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="AA39" s="3">
         <v>45908.34733796296</v>
       </c>
       <c r="AB39" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AC39" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="AD39" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="AF39" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AH39" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ39" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK39" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="AL39" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AN39" t="s">
-        <v>26</v>
+        <v>348</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT39">
+        <v>8691</v>
+      </c>
+      <c r="AU39">
+        <v>0.2118</v>
+      </c>
+      <c r="AV39">
+        <v>2</v>
+      </c>
+      <c r="AW39">
+        <v>0.5019040703148929</v>
       </c>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E40" s="3">
         <v>45906.52493055556</v>
       </c>
       <c r="F40" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G40">
         <v>1849147</v>
       </c>
       <c r="K40" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L40" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N40" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O40">
         <v>9245.74</v>
@@ -7156,84 +7618,111 @@
         <v>81</v>
       </c>
       <c r="R40" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="S40" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T40" s="3">
         <v>45906</v>
       </c>
       <c r="U40" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="V40">
         <v>1849147</v>
       </c>
       <c r="W40" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X40">
         <v>9245.74</v>
       </c>
       <c r="Y40" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z40" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="AA40" s="3">
         <v>45906.69159722222</v>
       </c>
       <c r="AB40" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="AC40" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="AD40" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="AF40" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH40" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ40" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>337</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO40">
         <v>2</v>
       </c>
-      <c r="AK40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>20</v>
+      <c r="AP40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT40">
+        <v>15353</v>
+      </c>
+      <c r="AU40">
+        <v>0.2062</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>0.6701302227126156</v>
       </c>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E41" s="3">
         <v>45907.17291666667</v>
       </c>
       <c r="F41" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G41">
         <v>1849147</v>
@@ -7248,13 +7737,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L41" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N41" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O41">
         <v>9245.74</v>
@@ -7263,81 +7752,108 @@
         <v>81</v>
       </c>
       <c r="R41" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="S41" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T41" s="3">
         <v>45907</v>
       </c>
       <c r="U41" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="V41">
         <v>1849147</v>
       </c>
       <c r="W41" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X41">
         <v>9245.74</v>
       </c>
       <c r="Y41" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z41" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AA41" s="3">
         <v>45907.33748842592</v>
       </c>
       <c r="AB41" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AC41" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AD41" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK41" t="s">
         <v>334</v>
       </c>
-      <c r="AF41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>9</v>
-      </c>
       <c r="AL41" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="AM41" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AN41" t="s">
-        <v>26</v>
+        <v>348</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT41">
+        <v>15353</v>
+      </c>
+      <c r="AU41">
+        <v>0.2007</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0.369181460939989</v>
       </c>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="1:49">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E42" s="3">
         <v>45905.29359953704</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G42">
         <v>1435066</v>
@@ -7352,16 +7868,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L42" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M42" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N42" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O42">
         <v>13274.36</v>
@@ -7370,96 +7886,123 @@
         <v>73</v>
       </c>
       <c r="R42" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="S42" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T42" s="3">
         <v>45905</v>
       </c>
       <c r="U42" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="V42">
         <v>1435066</v>
       </c>
       <c r="W42" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X42">
         <v>13274.36</v>
       </c>
       <c r="Y42" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z42" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="AA42" s="3">
         <v>45905</v>
       </c>
       <c r="AB42" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="AC42" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="AD42" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>340</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>349</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO42">
         <v>4</v>
       </c>
-      <c r="AH42" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>26</v>
+      <c r="AP42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT42">
+        <v>8691</v>
+      </c>
+      <c r="AU42">
+        <v>0.1953</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0.4788015938601461</v>
       </c>
     </row>
-    <row r="43" spans="1:40">
+    <row r="43" spans="1:49">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E43" s="3">
         <v>45904.32949074074</v>
       </c>
       <c r="F43" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="G43">
         <v>1435066</v>
       </c>
       <c r="K43" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L43" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M43" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N43" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O43">
         <v>13274.36</v>
@@ -7468,96 +8011,123 @@
         <v>73</v>
       </c>
       <c r="R43" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="S43" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T43" s="3">
         <v>45904</v>
       </c>
       <c r="U43" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="V43">
         <v>1435066</v>
       </c>
       <c r="W43" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X43">
         <v>13274.36</v>
       </c>
       <c r="Y43" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z43" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="AA43" s="3">
         <v>45904.61673611111</v>
       </c>
       <c r="AB43" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="AC43" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="AD43" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="AF43" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AH43" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>350</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>349</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT43">
+        <v>8691</v>
+      </c>
+      <c r="AU43">
+        <v>0.1901</v>
+      </c>
+      <c r="AV43">
         <v>2</v>
       </c>
-      <c r="AJ43" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK43" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>22</v>
+      <c r="AW43">
+        <v>0.5019040703148929</v>
       </c>
     </row>
-    <row r="44" spans="1:40">
+    <row r="44" spans="1:49">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E44" s="3">
         <v>45903.48270833334</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G44">
         <v>1580314</v>
       </c>
       <c r="K44" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L44" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M44" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N44" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O44">
         <v>14617.9</v>
@@ -7566,93 +8136,120 @@
         <v>68</v>
       </c>
       <c r="R44" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="S44" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T44" s="3">
         <v>45903</v>
       </c>
       <c r="U44" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="V44">
         <v>1580314</v>
       </c>
       <c r="W44" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X44">
         <v>14617.9</v>
       </c>
       <c r="Y44" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z44" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="AA44" s="3">
         <v>45903.62222222222</v>
       </c>
       <c r="AB44" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="AC44" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="AD44" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>343</v>
+      </c>
+      <c r="AO44">
         <v>2</v>
       </c>
-      <c r="AH44" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>23</v>
+      <c r="AP44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT44">
+        <v>4977</v>
+      </c>
+      <c r="AU44">
+        <v>0.185</v>
+      </c>
+      <c r="AV44">
+        <v>2</v>
+      </c>
+      <c r="AW44">
+        <v>0.5604185229993759</v>
       </c>
     </row>
-    <row r="45" spans="1:40">
+    <row r="45" spans="1:49">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E45" s="3">
         <v>45904.00015046296</v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="G45">
         <v>1849147</v>
       </c>
       <c r="K45" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O45">
         <v>9245.74</v>
@@ -7661,90 +8258,117 @@
         <v>81</v>
       </c>
       <c r="R45" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="S45" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T45" s="3">
         <v>45904</v>
       </c>
       <c r="U45" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="V45">
         <v>1849147</v>
       </c>
       <c r="W45" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X45">
         <v>9245.74</v>
       </c>
       <c r="Y45" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z45" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="AA45" s="3">
         <v>45904.16681712963</v>
       </c>
       <c r="AB45" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="AC45" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="AD45" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="AF45" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO45">
         <v>2</v>
       </c>
-      <c r="AH45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>21</v>
+      <c r="AP45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT45">
+        <v>15353</v>
+      </c>
+      <c r="AU45">
+        <v>0.18</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>0.5451302227126156</v>
       </c>
     </row>
-    <row r="46" spans="1:40">
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E46" s="3">
         <v>45903.48262731481</v>
       </c>
       <c r="F46" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G46">
         <v>1048872</v>
       </c>
       <c r="K46" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="N46" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O46">
         <v>9702.07</v>
@@ -7753,96 +8377,123 @@
         <v>70</v>
       </c>
       <c r="R46" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="S46" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="T46" s="3">
         <v>45903</v>
       </c>
       <c r="U46" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="V46">
         <v>1048872</v>
       </c>
       <c r="W46" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X46">
         <v>9702.07</v>
       </c>
       <c r="Y46" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z46" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AA46" s="3">
         <v>45903</v>
       </c>
       <c r="AB46" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AC46" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AD46" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="AF46" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT46">
+        <v>11378</v>
+      </c>
+      <c r="AU46">
+        <v>0.1752</v>
+      </c>
+      <c r="AV46">
         <v>2</v>
       </c>
-      <c r="AH46" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>21</v>
+      <c r="AW46">
+        <v>0.4982479397052577</v>
       </c>
     </row>
-    <row r="47" spans="1:40">
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E47" s="3">
         <v>45903.45555555556</v>
       </c>
       <c r="F47" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G47">
         <v>1580314</v>
       </c>
       <c r="K47" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M47" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N47" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O47">
         <v>14617.9</v>
@@ -7851,93 +8502,120 @@
         <v>68</v>
       </c>
       <c r="R47" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="S47" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T47" s="3">
         <v>45903</v>
       </c>
       <c r="U47" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="V47">
         <v>1580314</v>
       </c>
       <c r="W47" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X47">
         <v>14617.9</v>
       </c>
       <c r="Y47" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z47" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="AA47" s="3">
         <v>45903.62222222222</v>
       </c>
       <c r="AB47" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="AC47" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="AD47" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="AF47" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>349</v>
+      </c>
+      <c r="AO47">
         <v>2</v>
       </c>
-      <c r="AH47" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>22</v>
+      <c r="AP47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT47">
+        <v>4977</v>
+      </c>
+      <c r="AU47">
+        <v>0.1704</v>
+      </c>
+      <c r="AV47">
+        <v>2</v>
+      </c>
+      <c r="AW47">
+        <v>0.5604185229993759</v>
       </c>
     </row>
-    <row r="48" spans="1:40">
+    <row r="48" spans="1:49">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E48" s="3">
         <v>45903.47960648148</v>
       </c>
       <c r="F48" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G48">
         <v>1849147</v>
       </c>
       <c r="K48" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L48" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N48" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O48">
         <v>9245.74</v>
@@ -7946,96 +8624,123 @@
         <v>81</v>
       </c>
       <c r="R48" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="S48" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T48" s="3">
         <v>45903</v>
       </c>
       <c r="U48" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="V48">
         <v>1849147</v>
       </c>
       <c r="W48" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X48">
         <v>9245.74</v>
       </c>
       <c r="Y48" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z48" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AA48" s="3">
         <v>45903.6444212963</v>
       </c>
       <c r="AB48" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="AC48" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AD48" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="AF48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>350</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO48">
         <v>2</v>
       </c>
-      <c r="AH48" t="s">
+      <c r="AP48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT48">
+        <v>15353</v>
+      </c>
+      <c r="AU48">
+        <v>0.1658</v>
+      </c>
+      <c r="AV48">
         <v>2</v>
       </c>
-      <c r="AJ48" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>21</v>
+      <c r="AW48">
+        <v>0.5451302227126156</v>
       </c>
     </row>
-    <row r="49" spans="1:40">
+    <row r="49" spans="1:49">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E49" s="3">
         <v>45903.45043981481</v>
       </c>
       <c r="F49" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G49">
         <v>1435066</v>
       </c>
       <c r="K49" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="L49" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M49" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N49" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O49">
         <v>13274.36</v>
@@ -8044,81 +8749,108 @@
         <v>73</v>
       </c>
       <c r="R49" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="S49" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T49" s="3">
         <v>45903</v>
       </c>
       <c r="U49" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="V49">
         <v>1435066</v>
       </c>
       <c r="W49" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X49">
         <v>13274.36</v>
       </c>
       <c r="Y49" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z49" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AA49" s="3">
         <v>45903.74103009259</v>
       </c>
       <c r="AB49" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="AC49" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AD49" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="AF49" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>349</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT49">
+        <v>8691</v>
+      </c>
+      <c r="AU49">
+        <v>0.1612</v>
+      </c>
+      <c r="AV49">
         <v>2</v>
       </c>
-      <c r="AH49" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>22</v>
+      <c r="AW49">
+        <v>0.5019040703148929</v>
       </c>
     </row>
-    <row r="50" spans="1:40">
+    <row r="50" spans="1:49">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E50" s="3">
         <v>45895.02708333333</v>
       </c>
       <c r="F50" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G50">
         <v>1580314</v>
@@ -8133,16 +8865,16 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L50" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M50" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N50" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O50">
         <v>14617.9</v>
@@ -8151,84 +8883,111 @@
         <v>68</v>
       </c>
       <c r="R50" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="S50" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T50" s="3">
         <v>45895</v>
       </c>
       <c r="U50" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="V50">
         <v>1580314</v>
       </c>
       <c r="W50" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X50">
         <v>14617.9</v>
       </c>
       <c r="Y50" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z50" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AA50" s="3">
         <v>45895.19375</v>
       </c>
       <c r="AB50" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="AC50" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AD50" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="AF50" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH50" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ50" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK50" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="AL50" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="AM50" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="AN50" t="s">
-        <v>24</v>
+        <v>342</v>
+      </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AP50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT50">
+        <v>4977</v>
+      </c>
+      <c r="AU50">
+        <v>0.1567</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0.3844697612267493</v>
       </c>
     </row>
-    <row r="51" spans="1:40">
+    <row r="51" spans="1:49">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
         <v>167</v>
       </c>
-      <c r="C51" t="s">
-        <v>187</v>
-      </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E51" s="3">
         <v>45881.04166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="G51">
         <v>1580314</v>
@@ -8243,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L51" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M51" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N51" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O51">
         <v>14617.9</v>
@@ -8261,81 +9020,108 @@
         <v>68</v>
       </c>
       <c r="R51" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="S51" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T51" s="3">
         <v>45881</v>
       </c>
       <c r="U51" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="V51">
         <v>1580314</v>
       </c>
       <c r="W51" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X51">
         <v>14617.9</v>
       </c>
       <c r="Y51" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z51" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="AA51" s="3">
         <v>45881.20833333334</v>
       </c>
       <c r="AB51" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="AC51" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="AD51" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL51" t="s">
         <v>344</v>
       </c>
-      <c r="AF51" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK51" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL51" t="s">
-        <v>27</v>
-      </c>
       <c r="AM51" t="s">
-        <v>27</v>
+        <v>344</v>
       </c>
       <c r="AN51" t="s">
-        <v>27</v>
+        <v>344</v>
+      </c>
+      <c r="AO51">
+        <v>1</v>
+      </c>
+      <c r="AP51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT51">
+        <v>4977</v>
+      </c>
+      <c r="AU51">
+        <v>0.1523</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0.3844697612267493</v>
       </c>
     </row>
-    <row r="52" spans="1:40">
+    <row r="52" spans="1:49">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E52" s="3">
         <v>45895.01450231481</v>
       </c>
       <c r="F52" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G52">
         <v>1435066</v>
@@ -8350,16 +9136,16 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L52" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M52" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N52" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O52">
         <v>13274.36</v>
@@ -8368,84 +9154,111 @@
         <v>73</v>
       </c>
       <c r="R52" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="S52" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="T52" s="3">
         <v>45895</v>
       </c>
       <c r="U52" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="V52">
         <v>1435066</v>
       </c>
       <c r="W52" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X52">
         <v>13274.36</v>
       </c>
       <c r="Y52" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z52" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="AA52" s="3">
         <v>45895.30491898148</v>
       </c>
       <c r="AB52" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="AC52" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="AD52" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>340</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>342</v>
+      </c>
+      <c r="AN52" t="s">
         <v>345</v>
       </c>
-      <c r="AF52" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK52" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM52" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN52" t="s">
-        <v>20</v>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT52">
+        <v>8691</v>
+      </c>
+      <c r="AU52">
+        <v>0.1481</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0.376904070314893</v>
       </c>
     </row>
-    <row r="53" spans="1:40">
+    <row r="53" spans="1:49">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
         <v>169</v>
-      </c>
-      <c r="C53" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" t="s">
-        <v>189</v>
       </c>
       <c r="E53" s="3">
         <v>45875.53064814815</v>
       </c>
       <c r="F53" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G53">
         <v>1580314</v>
@@ -8460,16 +9273,16 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L53" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M53" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N53" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O53">
         <v>14617.9</v>
@@ -8478,81 +9291,108 @@
         <v>68</v>
       </c>
       <c r="R53" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="S53" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="T53" s="3">
         <v>45875</v>
       </c>
       <c r="U53" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="V53">
         <v>1580314</v>
       </c>
       <c r="W53" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X53">
         <v>14617.9</v>
       </c>
       <c r="Y53" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z53" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AA53" s="3">
         <v>45875.68888888889</v>
       </c>
       <c r="AB53" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="AC53" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AD53" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN53" t="s">
         <v>346</v>
       </c>
-      <c r="AF53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL53" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM53" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN53" t="s">
-        <v>19</v>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT53">
+        <v>4977</v>
+      </c>
+      <c r="AU53">
+        <v>0.1438</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0.3844697612267493</v>
       </c>
     </row>
-    <row r="54" spans="1:40">
+    <row r="54" spans="1:49">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" t="s">
         <v>170</v>
-      </c>
-      <c r="D54" t="s">
-        <v>190</v>
       </c>
       <c r="E54" s="3">
         <v>45880.11255787037</v>
       </c>
       <c r="F54" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="G54">
         <v>1849147</v>
@@ -8567,13 +9407,13 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L54" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O54">
         <v>9245.74</v>
@@ -8582,64 +9422,91 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="S54" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T54" s="3">
         <v>45880</v>
       </c>
       <c r="U54" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="V54">
         <v>1849147</v>
       </c>
       <c r="W54" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X54">
         <v>9245.74</v>
       </c>
       <c r="Y54" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Z54" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AA54" s="3">
         <v>45880.27922453704</v>
       </c>
       <c r="AB54" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="AC54" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AD54" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="AF54" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AH54" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AJ54" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="AK54" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="AL54" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="AM54" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
       <c r="AN54" t="s">
-        <v>22</v>
+        <v>349</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT54">
+        <v>15353</v>
+      </c>
+      <c r="AU54">
+        <v>0.1397</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0.369181460939989</v>
       </c>
     </row>
   </sheetData>
